--- a/finan.xlsx
+++ b/finan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Documentos/GitHub/planejamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="30" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B142AEF5-1357-4A5D-A3B4-297EE48C20B7}"/>
+  <xr:revisionPtr revIDLastSave="35" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C9A3DA-151A-4AAC-9DE0-1B2EF6FBB5E7}"/>
   <bookViews>
-    <workbookView xWindow="495" yWindow="360" windowWidth="26250" windowHeight="15345" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
   </bookViews>
   <sheets>
     <sheet name="SAIDAS" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10668" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10668" uniqueCount="88">
   <si>
     <t>DATA</t>
   </si>
@@ -299,6 +299,9 @@
   </si>
   <si>
     <t>TAPETE</t>
+  </si>
+  <si>
+    <t>JAMAR</t>
   </si>
 </sst>
 </file>
@@ -906,7 +909,7 @@
   <dimension ref="A1:F5232"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -918,7 +921,7 @@
     <col min="6" max="6" width="10.42578125" style="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -939,219 +942,223 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="11">
-        <v>45662</v>
-      </c>
-      <c r="B2" s="12" t="str">
-        <f>UPPER(TEXT(A2,"mmmm"))</f>
+      <c r="A2" s="16">
+        <v>45665</v>
+      </c>
+      <c r="B2" s="2" t="str">
+        <f t="shared" ref="B2:B17" si="0">UPPER(TEXT(A2,"mmmm"))</f>
         <v>JANEIRO</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="E2" s="14">
-        <v>380</v>
-      </c>
-      <c r="F2" s="15"/>
+      <c r="C2" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="E2" s="3">
+        <v>350</v>
+      </c>
+      <c r="F2" s="17"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>45666</v>
       </c>
       <c r="B3" s="2" t="str">
-        <f t="shared" ref="B3" si="0">UPPER(TEXT(A3,"mmmm"))</f>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>85</v>
+        <v>26</v>
       </c>
       <c r="E3" s="6">
-        <v>56.67</v>
-      </c>
-      <c r="F3" s="17"/>
+        <v>435.65</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>38</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
-        <v>45663</v>
+        <v>45667</v>
       </c>
       <c r="B4" s="2" t="str">
-        <f t="shared" ref="B4:B63" si="1">UPPER(TEXT(A4,"mmmm"))</f>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
       <c r="E4" s="3">
-        <v>200</v>
+        <v>80</v>
       </c>
       <c r="F4" s="17"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
-        <v>45665</v>
+        <v>45668</v>
       </c>
       <c r="B5" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="3">
-        <v>350</v>
-      </c>
-      <c r="F5" s="17"/>
+        <v>14</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="6">
+        <v>200</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>39</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="16">
-        <v>45666</v>
+        <v>45669</v>
       </c>
       <c r="B6" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="6">
-        <v>277.16000000000003</v>
+      <c r="D6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="3">
+        <v>80</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
-        <v>45667</v>
+        <v>45670</v>
       </c>
       <c r="B7" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" s="3">
-        <v>80</v>
+        <v>18</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>330</v>
       </c>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
-        <v>45668</v>
+        <v>45671</v>
       </c>
       <c r="B8" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6">
-        <v>200</v>
+      <c r="D8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E8" s="3">
+        <v>700</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
-        <v>45669</v>
+        <v>45672</v>
       </c>
       <c r="B9" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E9" s="3">
-        <v>80</v>
+      <c r="D9" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" s="6">
+        <v>257.52</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
-        <v>45670</v>
+        <v>45673</v>
       </c>
       <c r="B10" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="E10" s="6">
-        <v>330</v>
+        <v>14</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E10" s="3">
+        <v>24</v>
       </c>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="16">
-        <v>45671</v>
+        <v>45674</v>
       </c>
       <c r="B11" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="E11" s="3">
-        <v>700</v>
+        <v>13</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="6">
+        <v>3130</v>
       </c>
       <c r="F11" s="17" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="16">
-        <v>45672</v>
+        <v>45675</v>
       </c>
       <c r="B12" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="6">
-        <v>257.52</v>
+      <c r="D12" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E12" s="3">
+        <v>318.61</v>
       </c>
       <c r="F12" s="17" t="s">
         <v>41</v>
@@ -1159,106 +1166,102 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
-        <v>45673</v>
+        <v>45676</v>
       </c>
       <c r="B13" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="3">
-        <v>24</v>
-      </c>
-      <c r="F13" s="17"/>
+        <v>19</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="6">
+        <v>385</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
-        <v>45674</v>
+        <v>45677</v>
       </c>
       <c r="B14" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E14" s="6">
-        <v>3130</v>
+        <v>14</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="3">
+        <v>200</v>
       </c>
       <c r="F14" s="17" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
-        <v>45675</v>
+        <v>45677</v>
       </c>
       <c r="B15" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>34</v>
+        <v>84</v>
       </c>
       <c r="E15" s="3">
-        <v>318.61</v>
-      </c>
-      <c r="F15" s="17" t="s">
-        <v>41</v>
-      </c>
+        <v>852.11</v>
+      </c>
+      <c r="F15" s="17"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="16">
-        <v>45676</v>
+        <v>45677</v>
       </c>
       <c r="B16" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="D16" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="E16" s="6">
-        <v>385</v>
-      </c>
-      <c r="F16" s="17" t="s">
-        <v>42</v>
-      </c>
+      <c r="D16" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="E16" s="3">
+        <v>300</v>
+      </c>
+      <c r="F16" s="17"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="16">
-        <v>45677</v>
-      </c>
-      <c r="B17" s="2" t="str">
-        <f t="shared" si="1"/>
+      <c r="A17" s="18">
+        <v>45682</v>
+      </c>
+      <c r="B17" s="19" t="str">
+        <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E17" s="3">
+      <c r="C17" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="19" t="s">
+        <v>86</v>
+      </c>
+      <c r="E17" s="21">
         <v>200</v>
       </c>
-      <c r="F17" s="17" t="s">
-        <v>43</v>
-      </c>
+      <c r="F17" s="22"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="11">
@@ -1284,7 +1287,7 @@
         <v>45693</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="B4:B63" si="1">UPPER(TEXT(A19,"mmmm"))</f>
         <v>FEVEREIRO</v>
       </c>
       <c r="C19" s="5" t="s">

--- a/finan.xlsx
+++ b/finan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Documentos/GitHub/planejamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="35" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{30C9A3DA-151A-4AAC-9DE0-1B2EF6FBB5E7}"/>
+  <xr:revisionPtr revIDLastSave="36" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5E0C32D4-AA9F-44EB-8523-AA28F0CDD1A0}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
+    <workbookView xWindow="5415" yWindow="5415" windowWidth="16410" windowHeight="15345" activeTab="1" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
   </bookViews>
   <sheets>
     <sheet name="SAIDAS" sheetId="1" r:id="rId1"/>
@@ -908,7 +908,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702EDAF2-4E56-4152-9AC7-42C0539C8934}">
   <dimension ref="A1:F5232"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
@@ -1287,7 +1287,7 @@
         <v>45693</v>
       </c>
       <c r="B19" s="2" t="str">
-        <f t="shared" ref="B4:B63" si="1">UPPER(TEXT(A19,"mmmm"))</f>
+        <f t="shared" ref="B19:B63" si="1">UPPER(TEXT(A19,"mmmm"))</f>
         <v>FEVEREIRO</v>
       </c>
       <c r="C19" s="5" t="s">
@@ -80187,8 +80187,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF510503-8604-4EE6-BD13-779E5B0B7580}">
   <dimension ref="A1:H59"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80238,7 +80238,7 @@
       </c>
       <c r="H2" s="27">
         <f>SUM(E2:E6)</f>
-        <v>7324</v>
+        <v>8324</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -80256,7 +80256,7 @@
         <v>8</v>
       </c>
       <c r="E3" s="24">
-        <v>1700</v>
+        <v>2700</v>
       </c>
       <c r="G3">
         <v>2</v>

--- a/finan.xlsx
+++ b/finan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Documentos/GitHub/planejamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="167" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C4BF563F-8AA7-42C9-A55B-E1EB485B4574}"/>
+  <xr:revisionPtr revIDLastSave="168" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8B20D3-F00E-485C-AA24-9A705ABD3BC7}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
+    <workbookView xWindow="3765" yWindow="3765" windowWidth="16410" windowHeight="15345" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
   </bookViews>
   <sheets>
     <sheet name="SAIDAS" sheetId="1" r:id="rId1"/>
@@ -936,7 +936,7 @@
   <dimension ref="A1:P5225"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+      <selection activeCell="H3" sqref="H3:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -988,7 +988,7 @@
         <v>25</v>
       </c>
       <c r="E2" s="33">
-        <v>350</v>
+        <v>320</v>
       </c>
       <c r="F2" s="32"/>
     </row>

--- a/finan.xlsx
+++ b/finan.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://petrobrasbr-my.sharepoint.com/personal/paulo_cainelles_prestserv_petrobras_com_br/Documents/Documentos/GitHub/planejamento/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="168" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{5A8B20D3-F00E-485C-AA24-9A705ABD3BC7}"/>
+  <xr:revisionPtr revIDLastSave="217" documentId="8_{EC1AC212-DB19-4848-888C-E47EB9D93AAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{43A8E827-9A61-4846-B273-2B31DD2F117B}"/>
   <bookViews>
-    <workbookView xWindow="3765" yWindow="3765" windowWidth="16410" windowHeight="15345" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" activeTab="1" xr2:uid="{4FBCED0E-6C2B-4F10-A7DA-909F50FE71FD}"/>
   </bookViews>
   <sheets>
     <sheet name="SAIDAS" sheetId="1" r:id="rId1"/>
     <sheet name="ENTRADAS" sheetId="3" r:id="rId2"/>
     <sheet name="CATEGORIAS" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">SAIDAS!$A$1:$F$5225</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10654" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10696" uniqueCount="91">
   <si>
     <t>DATA</t>
   </si>
@@ -303,6 +306,15 @@
   <si>
     <t>JAMAR</t>
   </si>
+  <si>
+    <t>NUBANK BIANCA 50%</t>
+  </si>
+  <si>
+    <t>ENTRA</t>
+  </si>
+  <si>
+    <t>SOBRA</t>
+  </si>
 </sst>
 </file>
 
@@ -503,7 +515,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -556,13 +568,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="6" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="10" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="44" fontId="0" fillId="6" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="49" fontId="0" fillId="6" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="5" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="44" fontId="0" fillId="4" borderId="10" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Moeda" xfId="1" builtinId="4"/>
@@ -935,8 +951,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{702EDAF2-4E56-4152-9AC7-42C0539C8934}">
   <dimension ref="A1:P5225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3:H4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9:F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1242,59 +1258,59 @@
       <c r="F14" s="32"/>
     </row>
     <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="34">
+      <c r="A15" s="28">
         <v>45682</v>
       </c>
-      <c r="B15" s="35" t="str">
+      <c r="B15" s="34" t="str">
         <f t="shared" si="0"/>
         <v>JANEIRO</v>
       </c>
-      <c r="C15" s="36" t="s">
+      <c r="C15" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="37">
+      <c r="E15" s="33">
         <v>200</v>
       </c>
-      <c r="F15" s="38"/>
+      <c r="F15" s="32"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
+      <c r="A16" s="11">
         <v>45693</v>
       </c>
-      <c r="B16" s="2" t="str">
+      <c r="B16" s="12" t="str">
         <f t="shared" ref="B16:B56" si="1">UPPER(TEXT(A16,"mmmm"))</f>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C16" s="5" t="s">
+      <c r="C16" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="2" t="s">
+      <c r="D16" s="12" t="s">
         <v>25</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="38">
         <v>331</v>
       </c>
-      <c r="F16" s="17"/>
+      <c r="F16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="16">
         <v>45693</v>
       </c>
-      <c r="B17" s="2" t="str">
+      <c r="B17" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C17" s="5" t="s">
+      <c r="C17" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="5" t="s">
+      <c r="D17" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E17" s="6">
-        <v>970</v>
+        <v>350</v>
       </c>
       <c r="F17" s="17" t="s">
         <v>44</v>
@@ -1304,14 +1320,14 @@
       <c r="A18" s="16">
         <v>45693</v>
       </c>
-      <c r="B18" s="2" t="str">
+      <c r="B18" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E18" s="6">
@@ -1325,14 +1341,14 @@
       <c r="A19" s="16">
         <v>45693</v>
       </c>
-      <c r="B19" s="2" t="str">
+      <c r="B19" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="C19" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2" t="s">
+      <c r="D19" s="36" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="3">
@@ -1346,14 +1362,14 @@
       <c r="A20" s="16">
         <v>45693</v>
       </c>
-      <c r="B20" s="2" t="str">
+      <c r="B20" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C20" s="5" t="s">
+      <c r="C20" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D20" s="5" t="s">
+      <c r="D20" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E20" s="6">
@@ -1365,14 +1381,14 @@
       <c r="A21" s="16">
         <v>45693</v>
       </c>
-      <c r="B21" s="2" t="str">
+      <c r="B21" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E21" s="3">
@@ -1386,14 +1402,14 @@
       <c r="A22" s="16">
         <v>45693</v>
       </c>
-      <c r="B22" s="2" t="str">
+      <c r="B22" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C22" s="5" t="s">
+      <c r="C22" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E22" s="6">
@@ -1407,14 +1423,14 @@
       <c r="A23" s="16">
         <v>45693</v>
       </c>
-      <c r="B23" s="2" t="str">
+      <c r="B23" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C23" s="5" t="s">
+      <c r="C23" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D23" s="5" t="s">
+      <c r="D23" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E23" s="6">
@@ -1428,14 +1444,14 @@
       <c r="A24" s="16">
         <v>45693</v>
       </c>
-      <c r="B24" s="2" t="str">
+      <c r="B24" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="D24" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E24" s="3">
@@ -1449,14 +1465,14 @@
       <c r="A25" s="16">
         <v>45693</v>
       </c>
-      <c r="B25" s="2" t="str">
+      <c r="B25" s="36" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D25" s="5" t="s">
+      <c r="D25" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E25" s="6">
@@ -1470,14 +1486,14 @@
       <c r="A26" s="16">
         <v>45693</v>
       </c>
-      <c r="B26" s="2" t="str">
+      <c r="B26" s="36" t="str">
         <f t="shared" ref="B26" si="2">UPPER(TEXT(A26,"mmmm"))</f>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="37" t="s">
         <v>85</v>
       </c>
       <c r="E26" s="6">
@@ -1486,23 +1502,23 @@
       <c r="F26" s="17"/>
     </row>
     <row r="27" spans="1:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="16">
+      <c r="A27" s="18">
         <v>45693</v>
       </c>
-      <c r="B27" s="2" t="str">
+      <c r="B27" s="19" t="str">
         <f t="shared" si="1"/>
         <v>FEVEREIRO</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="D27" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="3">
+      <c r="E27" s="21">
         <v>200</v>
       </c>
-      <c r="F27" s="17" t="s">
+      <c r="F27" s="22" t="s">
         <v>45</v>
       </c>
     </row>
@@ -1520,8 +1536,8 @@
       <c r="D28" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="14">
-        <v>75</v>
+      <c r="E28" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F28" s="15"/>
     </row>
@@ -1529,18 +1545,18 @@
       <c r="A29" s="16">
         <v>45721</v>
       </c>
-      <c r="B29" s="2" t="str">
+      <c r="B29" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C29" s="5" t="s">
+      <c r="C29" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="2" t="s">
+      <c r="D29" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E29" s="3">
-        <v>70</v>
+      <c r="E29" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F29" s="17"/>
     </row>
@@ -1548,18 +1564,18 @@
       <c r="A30" s="16">
         <v>45721</v>
       </c>
-      <c r="B30" s="2" t="str">
+      <c r="B30" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C30" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D30" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E30" s="6">
-        <v>60</v>
+      <c r="E30" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F30" s="17"/>
     </row>
@@ -1567,14 +1583,14 @@
       <c r="A31" s="16">
         <v>45721</v>
       </c>
-      <c r="B31" s="2" t="str">
+      <c r="B31" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C31" s="5" t="s">
+      <c r="C31" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D31" s="2" t="s">
+      <c r="D31" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E31" s="3">
@@ -1586,18 +1602,18 @@
       <c r="A32" s="16">
         <v>45721</v>
       </c>
-      <c r="B32" s="2" t="str">
+      <c r="B32" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C32" s="5" t="s">
+      <c r="C32" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="5" t="s">
+      <c r="D32" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E32" s="6">
-        <v>277.16000000000003</v>
+        <v>485</v>
       </c>
       <c r="F32" s="17" t="s">
         <v>48</v>
@@ -1607,14 +1623,14 @@
       <c r="A33" s="16">
         <v>45721</v>
       </c>
-      <c r="B33" s="2" t="str">
+      <c r="B33" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C33" s="5" t="s">
+      <c r="C33" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D33" s="2" t="s">
+      <c r="D33" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E33" s="3">
@@ -1626,14 +1642,14 @@
       <c r="A34" s="16">
         <v>45721</v>
       </c>
-      <c r="B34" s="2" t="str">
+      <c r="B34" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C34" s="5" t="s">
+      <c r="C34" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="D34" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="6">
@@ -1647,14 +1663,14 @@
       <c r="A35" s="16">
         <v>45721</v>
       </c>
-      <c r="B35" s="2" t="str">
+      <c r="B35" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C35" s="5" t="s">
+      <c r="C35" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D35" s="2" t="s">
+      <c r="D35" s="36" t="s">
         <v>29</v>
       </c>
       <c r="E35" s="3">
@@ -1668,14 +1684,14 @@
       <c r="A36" s="16">
         <v>45721</v>
       </c>
-      <c r="B36" s="2" t="str">
+      <c r="B36" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="C36" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="D36" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E36" s="6">
@@ -1687,14 +1703,14 @@
       <c r="A37" s="16">
         <v>45721</v>
       </c>
-      <c r="B37" s="2" t="str">
+      <c r="B37" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C37" s="5" t="s">
+      <c r="C37" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D37" s="2" t="s">
+      <c r="D37" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E37" s="3">
@@ -1708,14 +1724,14 @@
       <c r="A38" s="16">
         <v>45721</v>
       </c>
-      <c r="B38" s="2" t="str">
+      <c r="B38" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C38" s="5" t="s">
+      <c r="C38" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D38" s="5" t="s">
+      <c r="D38" s="37" t="s">
         <v>32</v>
       </c>
       <c r="E38" s="6">
@@ -1729,14 +1745,14 @@
       <c r="A39" s="16">
         <v>45721</v>
       </c>
-      <c r="B39" s="2" t="str">
+      <c r="B39" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C39" s="5" t="s">
+      <c r="C39" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D39" s="2" t="s">
+      <c r="D39" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E39" s="3">
@@ -1748,14 +1764,14 @@
       <c r="A40" s="16">
         <v>45721</v>
       </c>
-      <c r="B40" s="2" t="str">
+      <c r="B40" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C40" s="5" t="s">
+      <c r="C40" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E40" s="6">
@@ -1769,14 +1785,14 @@
       <c r="A41" s="16">
         <v>45721</v>
       </c>
-      <c r="B41" s="2" t="str">
+      <c r="B41" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C41" s="5" t="s">
+      <c r="C41" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D41" s="2" t="s">
+      <c r="D41" s="36" t="s">
         <v>34</v>
       </c>
       <c r="E41" s="3">
@@ -1790,14 +1806,14 @@
       <c r="A42" s="16">
         <v>45721</v>
       </c>
-      <c r="B42" s="2" t="str">
+      <c r="B42" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C42" s="5" t="s">
+      <c r="C42" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E42" s="6">
@@ -1811,14 +1827,14 @@
       <c r="A43" s="16">
         <v>45721</v>
       </c>
-      <c r="B43" s="2" t="str">
+      <c r="B43" s="36" t="str">
         <f t="shared" si="1"/>
         <v>MARÇO</v>
       </c>
-      <c r="C43" s="5" t="s">
+      <c r="C43" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D43" s="2" t="s">
+      <c r="D43" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E43" s="3">
@@ -1842,8 +1858,8 @@
       <c r="D44" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E44" s="21">
-        <v>80</v>
+      <c r="E44" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F44" s="22"/>
     </row>
@@ -1861,8 +1877,8 @@
       <c r="D45" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="14">
-        <v>75</v>
+      <c r="E45" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F45" s="15"/>
     </row>
@@ -1870,18 +1886,18 @@
       <c r="A46" s="16">
         <v>45752</v>
       </c>
-      <c r="B46" s="2" t="str">
+      <c r="B46" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C46" s="5" t="s">
+      <c r="C46" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D46" s="2" t="s">
+      <c r="D46" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="3">
-        <v>70</v>
+      <c r="E46" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="F46" s="17"/>
     </row>
@@ -1889,18 +1905,18 @@
       <c r="A47" s="16">
         <v>45752</v>
       </c>
-      <c r="B47" s="2" t="str">
+      <c r="B47" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C47" s="5" t="s">
+      <c r="C47" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D47" s="5" t="s">
+      <c r="D47" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E47" s="6">
-        <v>60</v>
+      <c r="E47" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F47" s="17"/>
     </row>
@@ -1908,14 +1924,14 @@
       <c r="A48" s="16">
         <v>45752</v>
       </c>
-      <c r="B48" s="2" t="str">
+      <c r="B48" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C48" s="5" t="s">
+      <c r="C48" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D48" s="2" t="s">
+      <c r="D48" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E48" s="3">
@@ -1927,14 +1943,14 @@
       <c r="A49" s="16">
         <v>45752</v>
       </c>
-      <c r="B49" s="2" t="str">
+      <c r="B49" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C49" s="5" t="s">
+      <c r="C49" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="5" t="s">
+      <c r="D49" s="37" t="s">
         <v>26</v>
       </c>
       <c r="E49" s="6">
@@ -1948,14 +1964,14 @@
       <c r="A50" s="16">
         <v>45752</v>
       </c>
-      <c r="B50" s="2" t="str">
+      <c r="B50" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C50" s="5" t="s">
+      <c r="C50" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D50" s="2" t="s">
+      <c r="D50" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E50" s="3">
@@ -1967,14 +1983,14 @@
       <c r="A51" s="16">
         <v>45752</v>
       </c>
-      <c r="B51" s="2" t="str">
+      <c r="B51" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C51" s="5" t="s">
+      <c r="C51" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D51" s="5" t="s">
+      <c r="D51" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E51" s="6">
@@ -1988,14 +2004,14 @@
       <c r="A52" s="16">
         <v>45752</v>
       </c>
-      <c r="B52" s="2" t="str">
+      <c r="B52" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C52" s="5" t="s">
+      <c r="C52" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D52" s="2" t="s">
+      <c r="D52" s="36" t="s">
         <v>29</v>
       </c>
       <c r="E52" s="3">
@@ -2009,14 +2025,14 @@
       <c r="A53" s="16">
         <v>45752</v>
       </c>
-      <c r="B53" s="2" t="str">
+      <c r="B53" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C53" s="5" t="s">
+      <c r="C53" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D53" s="5" t="s">
+      <c r="D53" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E53" s="6">
@@ -2028,14 +2044,14 @@
       <c r="A54" s="16">
         <v>45752</v>
       </c>
-      <c r="B54" s="2" t="str">
+      <c r="B54" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C54" s="5" t="s">
+      <c r="C54" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D54" s="2" t="s">
+      <c r="D54" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E54" s="3">
@@ -2049,14 +2065,14 @@
       <c r="A55" s="16">
         <v>45752</v>
       </c>
-      <c r="B55" s="2" t="str">
+      <c r="B55" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D55" s="2" t="s">
+      <c r="D55" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E55" s="3">
@@ -2068,14 +2084,14 @@
       <c r="A56" s="16">
         <v>45752</v>
       </c>
-      <c r="B56" s="2" t="str">
+      <c r="B56" s="36" t="str">
         <f t="shared" si="1"/>
         <v>ABRIL</v>
       </c>
-      <c r="C56" s="5" t="s">
+      <c r="C56" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D56" s="5" t="s">
+      <c r="D56" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E56" s="6">
@@ -2089,14 +2105,14 @@
       <c r="A57" s="16">
         <v>45752</v>
       </c>
-      <c r="B57" s="2" t="str">
+      <c r="B57" s="36" t="str">
         <f t="shared" ref="B57:B59" si="3">UPPER(TEXT(A57,"mmmm"))</f>
         <v>ABRIL</v>
       </c>
-      <c r="C57" s="5" t="s">
+      <c r="C57" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D57" s="5" t="s">
+      <c r="D57" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E57" s="6">
@@ -2110,14 +2126,14 @@
       <c r="A58" s="16">
         <v>45752</v>
       </c>
-      <c r="B58" s="2" t="str">
+      <c r="B58" s="36" t="str">
         <f t="shared" si="3"/>
         <v>ABRIL</v>
       </c>
-      <c r="C58" s="5" t="s">
+      <c r="C58" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D58" s="2" t="s">
+      <c r="D58" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E58" s="3">
@@ -2141,8 +2157,8 @@
       <c r="D59" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E59" s="21">
-        <v>80</v>
+      <c r="E59" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F59" s="22"/>
     </row>
@@ -2160,8 +2176,8 @@
       <c r="D60" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="14">
-        <v>75</v>
+      <c r="E60" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F60" s="15"/>
     </row>
@@ -2169,18 +2185,18 @@
       <c r="A61" s="16">
         <v>45782</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="36" t="str">
         <f t="shared" ref="B61:B123" si="4">UPPER(TEXT(A61,"mmmm"))</f>
         <v>MAIO</v>
       </c>
-      <c r="C61" s="5" t="s">
+      <c r="C61" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D61" s="2" t="s">
+      <c r="D61" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E61" s="3">
-        <v>70</v>
+      <c r="E61" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F61" s="17"/>
     </row>
@@ -2188,18 +2204,18 @@
       <c r="A62" s="16">
         <v>45782</v>
       </c>
-      <c r="B62" s="2" t="str">
+      <c r="B62" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C62" s="5" t="s">
+      <c r="C62" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D62" s="5" t="s">
+      <c r="D62" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E62" s="6">
-        <v>60</v>
+      <c r="E62" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F62" s="17"/>
     </row>
@@ -2207,14 +2223,14 @@
       <c r="A63" s="16">
         <v>45782</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C63" s="5" t="s">
+      <c r="C63" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D63" s="2" t="s">
+      <c r="D63" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E63" s="3">
@@ -2226,14 +2242,14 @@
       <c r="A64" s="16">
         <v>45782</v>
       </c>
-      <c r="B64" s="2" t="str">
+      <c r="B64" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C64" s="5" t="s">
+      <c r="C64" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D64" s="2" t="s">
+      <c r="D64" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E64" s="3">
@@ -2245,14 +2261,14 @@
       <c r="A65" s="16">
         <v>45782</v>
       </c>
-      <c r="B65" s="2" t="str">
+      <c r="B65" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C65" s="5" t="s">
+      <c r="C65" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D65" s="5" t="s">
+      <c r="D65" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E65" s="6">
@@ -2266,14 +2282,14 @@
       <c r="A66" s="16">
         <v>45782</v>
       </c>
-      <c r="B66" s="2" t="str">
+      <c r="B66" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C66" s="5" t="s">
+      <c r="C66" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D66" s="5" t="s">
+      <c r="D66" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E66" s="6">
@@ -2285,14 +2301,14 @@
       <c r="A67" s="16">
         <v>45782</v>
       </c>
-      <c r="B67" s="2" t="str">
+      <c r="B67" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C67" s="5" t="s">
+      <c r="C67" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D67" s="2" t="s">
+      <c r="D67" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E67" s="3">
@@ -2306,14 +2322,14 @@
       <c r="A68" s="16">
         <v>45782</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C68" s="5" t="s">
+      <c r="C68" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D68" s="2" t="s">
+      <c r="D68" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E68" s="3">
@@ -2325,14 +2341,14 @@
       <c r="A69" s="16">
         <v>45782</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C69" s="5" t="s">
+      <c r="C69" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D69" s="5" t="s">
+      <c r="D69" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E69" s="6">
@@ -2346,14 +2362,14 @@
       <c r="A70" s="16">
         <v>45782</v>
       </c>
-      <c r="B70" s="2" t="str">
+      <c r="B70" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C70" s="5" t="s">
+      <c r="C70" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D70" s="5" t="s">
+      <c r="D70" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E70" s="6">
@@ -2367,14 +2383,14 @@
       <c r="A71" s="16">
         <v>45782</v>
       </c>
-      <c r="B71" s="2" t="str">
+      <c r="B71" s="36" t="str">
         <f t="shared" si="4"/>
         <v>MAIO</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D71" s="2" t="s">
+      <c r="D71" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E71" s="3">
@@ -2398,8 +2414,8 @@
       <c r="D72" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E72" s="21">
-        <v>80</v>
+      <c r="E72" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F72" s="22"/>
     </row>
@@ -2417,8 +2433,8 @@
       <c r="D73" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="14">
-        <v>75</v>
+      <c r="E73" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F73" s="15"/>
     </row>
@@ -2426,18 +2442,18 @@
       <c r="A74" s="16">
         <v>45813</v>
       </c>
-      <c r="B74" s="2" t="str">
+      <c r="B74" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C74" s="5" t="s">
+      <c r="C74" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D74" s="2" t="s">
+      <c r="D74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E74" s="3">
-        <v>70</v>
+      <c r="E74" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F74" s="17"/>
     </row>
@@ -2445,18 +2461,18 @@
       <c r="A75" s="16">
         <v>45813</v>
       </c>
-      <c r="B75" s="2" t="str">
+      <c r="B75" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C75" s="5" t="s">
+      <c r="C75" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D75" s="5" t="s">
+      <c r="D75" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E75" s="6">
-        <v>60</v>
+      <c r="E75" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F75" s="17"/>
     </row>
@@ -2464,14 +2480,14 @@
       <c r="A76" s="16">
         <v>45813</v>
       </c>
-      <c r="B76" s="2" t="str">
+      <c r="B76" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C76" s="5" t="s">
+      <c r="C76" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D76" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E76" s="3">
@@ -2483,14 +2499,14 @@
       <c r="A77" s="16">
         <v>45813</v>
       </c>
-      <c r="B77" s="2" t="str">
+      <c r="B77" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C77" s="5" t="s">
+      <c r="C77" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D77" s="2" t="s">
+      <c r="D77" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E77" s="3">
@@ -2502,14 +2518,14 @@
       <c r="A78" s="16">
         <v>45813</v>
       </c>
-      <c r="B78" s="2" t="str">
+      <c r="B78" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C78" s="5" t="s">
+      <c r="C78" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D78" s="5" t="s">
+      <c r="D78" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E78" s="6">
@@ -2523,14 +2539,14 @@
       <c r="A79" s="16">
         <v>45813</v>
       </c>
-      <c r="B79" s="2" t="str">
+      <c r="B79" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C79" s="5" t="s">
+      <c r="C79" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D79" s="5" t="s">
+      <c r="D79" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E79" s="6">
@@ -2542,14 +2558,14 @@
       <c r="A80" s="16">
         <v>45813</v>
       </c>
-      <c r="B80" s="2" t="str">
+      <c r="B80" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C80" s="5" t="s">
+      <c r="C80" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="2" t="s">
+      <c r="D80" s="36" t="s">
         <v>31</v>
       </c>
       <c r="E80" s="3">
@@ -2563,14 +2579,14 @@
       <c r="A81" s="16">
         <v>45813</v>
       </c>
-      <c r="B81" s="2" t="str">
+      <c r="B81" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C81" s="5" t="s">
+      <c r="C81" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D81" s="2" t="s">
+      <c r="D81" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E81" s="3">
@@ -2582,14 +2598,14 @@
       <c r="A82" s="16">
         <v>45813</v>
       </c>
-      <c r="B82" s="2" t="str">
+      <c r="B82" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C82" s="5" t="s">
+      <c r="C82" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D82" s="5" t="s">
+      <c r="D82" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E82" s="6">
@@ -2603,14 +2619,14 @@
       <c r="A83" s="16">
         <v>45813</v>
       </c>
-      <c r="B83" s="2" t="str">
+      <c r="B83" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C83" s="5" t="s">
+      <c r="C83" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E83" s="6">
@@ -2624,14 +2640,14 @@
       <c r="A84" s="16">
         <v>45813</v>
       </c>
-      <c r="B84" s="2" t="str">
+      <c r="B84" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JUNHO</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C84" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D84" s="2" t="s">
+      <c r="D84" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E84" s="3">
@@ -2655,8 +2671,8 @@
       <c r="D85" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E85" s="21">
-        <v>80</v>
+      <c r="E85" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F85" s="22"/>
     </row>
@@ -2674,8 +2690,8 @@
       <c r="D86" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="14">
-        <v>75</v>
+      <c r="E86" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F86" s="15"/>
     </row>
@@ -2683,18 +2699,18 @@
       <c r="A87" s="16">
         <v>45843</v>
       </c>
-      <c r="B87" s="2" t="str">
+      <c r="B87" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D87" s="2" t="s">
+      <c r="D87" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E87" s="3">
-        <v>70</v>
+      <c r="E87" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F87" s="17"/>
     </row>
@@ -2702,18 +2718,18 @@
       <c r="A88" s="16">
         <v>45843</v>
       </c>
-      <c r="B88" s="2" t="str">
+      <c r="B88" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C88" s="5" t="s">
+      <c r="C88" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D88" s="5" t="s">
+      <c r="D88" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E88" s="6">
-        <v>60</v>
+      <c r="E88" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F88" s="17"/>
     </row>
@@ -2721,14 +2737,14 @@
       <c r="A89" s="16">
         <v>45843</v>
       </c>
-      <c r="B89" s="2" t="str">
+      <c r="B89" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C89" s="5" t="s">
+      <c r="C89" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D89" s="2" t="s">
+      <c r="D89" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E89" s="3">
@@ -2740,14 +2756,14 @@
       <c r="A90" s="16">
         <v>45843</v>
       </c>
-      <c r="B90" s="2" t="str">
+      <c r="B90" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C90" s="5" t="s">
+      <c r="C90" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D90" s="2" t="s">
+      <c r="D90" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E90" s="3">
@@ -2759,14 +2775,14 @@
       <c r="A91" s="16">
         <v>45843</v>
       </c>
-      <c r="B91" s="2" t="str">
+      <c r="B91" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C91" s="5" t="s">
+      <c r="C91" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E91" s="6">
@@ -2780,14 +2796,14 @@
       <c r="A92" s="16">
         <v>45843</v>
       </c>
-      <c r="B92" s="2" t="str">
+      <c r="B92" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C92" s="5" t="s">
+      <c r="C92" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D92" s="5" t="s">
+      <c r="D92" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E92" s="6">
@@ -2799,14 +2815,14 @@
       <c r="A93" s="16">
         <v>45843</v>
       </c>
-      <c r="B93" s="2" t="str">
+      <c r="B93" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C93" s="5" t="s">
+      <c r="C93" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D93" s="2" t="s">
+      <c r="D93" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E93" s="3">
@@ -2818,14 +2834,14 @@
       <c r="A94" s="16">
         <v>45843</v>
       </c>
-      <c r="B94" s="2" t="str">
+      <c r="B94" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C94" s="5" t="s">
+      <c r="C94" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D94" s="5" t="s">
+      <c r="D94" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E94" s="6">
@@ -2839,14 +2855,14 @@
       <c r="A95" s="16">
         <v>45843</v>
       </c>
-      <c r="B95" s="2" t="str">
+      <c r="B95" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C95" s="5" t="s">
+      <c r="C95" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D95" s="5" t="s">
+      <c r="D95" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E95" s="6">
@@ -2860,14 +2876,14 @@
       <c r="A96" s="16">
         <v>45843</v>
       </c>
-      <c r="B96" s="2" t="str">
+      <c r="B96" s="36" t="str">
         <f t="shared" si="4"/>
         <v>JULHO</v>
       </c>
-      <c r="C96" s="5" t="s">
+      <c r="C96" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D96" s="2" t="s">
+      <c r="D96" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E96" s="3">
@@ -2891,8 +2907,8 @@
       <c r="D97" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E97" s="21">
-        <v>80</v>
+      <c r="E97" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F97" s="22"/>
     </row>
@@ -2910,8 +2926,8 @@
       <c r="D98" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="14">
-        <v>75</v>
+      <c r="E98" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F98" s="15"/>
     </row>
@@ -2919,18 +2935,18 @@
       <c r="A99" s="16">
         <v>45874</v>
       </c>
-      <c r="B99" s="2" t="str">
+      <c r="B99" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C99" s="5" t="s">
+      <c r="C99" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D99" s="2" t="s">
+      <c r="D99" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E99" s="3">
-        <v>70</v>
+      <c r="E99" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F99" s="17"/>
     </row>
@@ -2938,18 +2954,18 @@
       <c r="A100" s="16">
         <v>45874</v>
       </c>
-      <c r="B100" s="2" t="str">
+      <c r="B100" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C100" s="5" t="s">
+      <c r="C100" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D100" s="5" t="s">
+      <c r="D100" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E100" s="6">
-        <v>60</v>
+      <c r="E100" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F100" s="17"/>
     </row>
@@ -2957,14 +2973,14 @@
       <c r="A101" s="16">
         <v>45874</v>
       </c>
-      <c r="B101" s="2" t="str">
+      <c r="B101" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C101" s="5" t="s">
+      <c r="C101" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D101" s="2" t="s">
+      <c r="D101" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E101" s="3">
@@ -2976,14 +2992,14 @@
       <c r="A102" s="16">
         <v>45874</v>
       </c>
-      <c r="B102" s="2" t="str">
+      <c r="B102" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C102" s="5" t="s">
+      <c r="C102" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D102" s="2" t="s">
+      <c r="D102" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E102" s="3">
@@ -2995,14 +3011,14 @@
       <c r="A103" s="16">
         <v>45874</v>
       </c>
-      <c r="B103" s="2" t="str">
+      <c r="B103" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C103" s="5" t="s">
+      <c r="C103" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D103" s="5" t="s">
+      <c r="D103" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E103" s="6">
@@ -3016,14 +3032,14 @@
       <c r="A104" s="16">
         <v>45874</v>
       </c>
-      <c r="B104" s="2" t="str">
+      <c r="B104" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C104" s="5" t="s">
+      <c r="C104" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D104" s="5" t="s">
+      <c r="D104" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E104" s="6">
@@ -3035,14 +3051,14 @@
       <c r="A105" s="16">
         <v>45874</v>
       </c>
-      <c r="B105" s="2" t="str">
+      <c r="B105" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C105" s="5" t="s">
+      <c r="C105" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D105" s="2" t="s">
+      <c r="D105" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E105" s="3">
@@ -3054,14 +3070,14 @@
       <c r="A106" s="16">
         <v>45874</v>
       </c>
-      <c r="B106" s="2" t="str">
+      <c r="B106" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C106" s="5" t="s">
+      <c r="C106" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D106" s="5" t="s">
+      <c r="D106" s="37" t="s">
         <v>13</v>
       </c>
       <c r="E106" s="6">
@@ -3075,14 +3091,14 @@
       <c r="A107" s="16">
         <v>45874</v>
       </c>
-      <c r="B107" s="2" t="str">
+      <c r="B107" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C107" s="5" t="s">
+      <c r="C107" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D107" s="5" t="s">
+      <c r="D107" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E107" s="6">
@@ -3096,14 +3112,14 @@
       <c r="A108" s="16">
         <v>45874</v>
       </c>
-      <c r="B108" s="2" t="str">
+      <c r="B108" s="36" t="str">
         <f t="shared" si="4"/>
         <v>AGOSTO</v>
       </c>
-      <c r="C108" s="5" t="s">
+      <c r="C108" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D108" s="2" t="s">
+      <c r="D108" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E108" s="3">
@@ -3127,8 +3143,8 @@
       <c r="D109" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E109" s="21">
-        <v>80</v>
+      <c r="E109" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F109" s="22"/>
     </row>
@@ -3146,8 +3162,8 @@
       <c r="D110" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="14">
-        <v>75</v>
+      <c r="E110" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F110" s="15"/>
     </row>
@@ -3155,18 +3171,18 @@
       <c r="A111" s="16">
         <v>45905</v>
       </c>
-      <c r="B111" s="2" t="str">
+      <c r="B111" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C111" s="5" t="s">
+      <c r="C111" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D111" s="2" t="s">
+      <c r="D111" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E111" s="3">
-        <v>70</v>
+      <c r="E111" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F111" s="17"/>
     </row>
@@ -3174,18 +3190,18 @@
       <c r="A112" s="16">
         <v>45905</v>
       </c>
-      <c r="B112" s="2" t="str">
+      <c r="B112" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C112" s="5" t="s">
+      <c r="C112" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D112" s="5" t="s">
+      <c r="D112" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E112" s="6">
-        <v>60</v>
+      <c r="E112" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F112" s="17"/>
     </row>
@@ -3193,14 +3209,14 @@
       <c r="A113" s="16">
         <v>45905</v>
       </c>
-      <c r="B113" s="2" t="str">
+      <c r="B113" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C113" s="5" t="s">
+      <c r="C113" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D113" s="2" t="s">
+      <c r="D113" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E113" s="3">
@@ -3212,14 +3228,14 @@
       <c r="A114" s="16">
         <v>45905</v>
       </c>
-      <c r="B114" s="2" t="str">
+      <c r="B114" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C114" s="5" t="s">
+      <c r="C114" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D114" s="2" t="s">
+      <c r="D114" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E114" s="3">
@@ -3231,14 +3247,14 @@
       <c r="A115" s="16">
         <v>45905</v>
       </c>
-      <c r="B115" s="2" t="str">
+      <c r="B115" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C115" s="5" t="s">
+      <c r="C115" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D115" s="5" t="s">
+      <c r="D115" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E115" s="6">
@@ -3252,14 +3268,14 @@
       <c r="A116" s="16">
         <v>45905</v>
       </c>
-      <c r="B116" s="2" t="str">
+      <c r="B116" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C116" s="5" t="s">
+      <c r="C116" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D116" s="5" t="s">
+      <c r="D116" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E116" s="6">
@@ -3271,14 +3287,14 @@
       <c r="A117" s="16">
         <v>45905</v>
       </c>
-      <c r="B117" s="2" t="str">
+      <c r="B117" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C117" s="5" t="s">
+      <c r="C117" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D117" s="2" t="s">
+      <c r="D117" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E117" s="3">
@@ -3290,14 +3306,14 @@
       <c r="A118" s="16">
         <v>45905</v>
       </c>
-      <c r="B118" s="2" t="str">
+      <c r="B118" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C118" s="5" t="s">
+      <c r="C118" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D118" s="5" t="s">
+      <c r="D118" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E118" s="6">
@@ -3311,14 +3327,14 @@
       <c r="A119" s="16">
         <v>45905</v>
       </c>
-      <c r="B119" s="2" t="str">
+      <c r="B119" s="36" t="str">
         <f t="shared" si="4"/>
         <v>SETEMBRO</v>
       </c>
-      <c r="C119" s="5" t="s">
+      <c r="C119" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D119" s="2" t="s">
+      <c r="D119" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E119" s="3">
@@ -3342,8 +3358,8 @@
       <c r="D120" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E120" s="21">
-        <v>80</v>
+      <c r="E120" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F120" s="22"/>
     </row>
@@ -3361,8 +3377,8 @@
       <c r="D121" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="14">
-        <v>75</v>
+      <c r="E121" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F121" s="15"/>
     </row>
@@ -3370,18 +3386,18 @@
       <c r="A122" s="16">
         <v>45935</v>
       </c>
-      <c r="B122" s="2" t="str">
+      <c r="B122" s="36" t="str">
         <f t="shared" si="4"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C122" s="5" t="s">
+      <c r="C122" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D122" s="2" t="s">
+      <c r="D122" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E122" s="3">
-        <v>70</v>
+      <c r="E122" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F122" s="17"/>
     </row>
@@ -3389,18 +3405,18 @@
       <c r="A123" s="16">
         <v>45935</v>
       </c>
-      <c r="B123" s="2" t="str">
+      <c r="B123" s="36" t="str">
         <f t="shared" si="4"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C123" s="5" t="s">
+      <c r="C123" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D123" s="5" t="s">
+      <c r="D123" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E123" s="6">
-        <v>60</v>
+      <c r="E123" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F123" s="17"/>
     </row>
@@ -3408,14 +3424,14 @@
       <c r="A124" s="16">
         <v>45935</v>
       </c>
-      <c r="B124" s="2" t="str">
+      <c r="B124" s="36" t="str">
         <f t="shared" ref="B124:B131" si="5">UPPER(TEXT(A124,"mmmm"))</f>
         <v>OUTUBRO</v>
       </c>
-      <c r="C124" s="5" t="s">
+      <c r="C124" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D124" s="2" t="s">
+      <c r="D124" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E124" s="3">
@@ -3427,14 +3443,14 @@
       <c r="A125" s="16">
         <v>45935</v>
       </c>
-      <c r="B125" s="2" t="str">
+      <c r="B125" s="36" t="str">
         <f t="shared" si="5"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C125" s="5" t="s">
+      <c r="C125" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D125" s="2" t="s">
+      <c r="D125" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E125" s="3">
@@ -3446,14 +3462,14 @@
       <c r="A126" s="16">
         <v>45935</v>
       </c>
-      <c r="B126" s="2" t="str">
+      <c r="B126" s="36" t="str">
         <f t="shared" si="5"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C126" s="5" t="s">
+      <c r="C126" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D126" s="5" t="s">
+      <c r="D126" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E126" s="6">
@@ -3467,14 +3483,14 @@
       <c r="A127" s="16">
         <v>45935</v>
       </c>
-      <c r="B127" s="2" t="str">
+      <c r="B127" s="36" t="str">
         <f t="shared" si="5"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C127" s="5" t="s">
+      <c r="C127" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D127" s="5" t="s">
+      <c r="D127" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E127" s="6">
@@ -3486,14 +3502,14 @@
       <c r="A128" s="16">
         <v>45935</v>
       </c>
-      <c r="B128" s="2" t="str">
+      <c r="B128" s="36" t="str">
         <f t="shared" si="5"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C128" s="5" t="s">
+      <c r="C128" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D128" s="2" t="s">
+      <c r="D128" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E128" s="3">
@@ -3505,14 +3521,14 @@
       <c r="A129" s="16">
         <v>45935</v>
       </c>
-      <c r="B129" s="2" t="str">
+      <c r="B129" s="36" t="str">
         <f t="shared" si="5"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C129" s="5" t="s">
+      <c r="C129" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D129" s="5" t="s">
+      <c r="D129" s="37" t="s">
         <v>35</v>
       </c>
       <c r="E129" s="6">
@@ -3526,14 +3542,14 @@
       <c r="A130" s="16">
         <v>45935</v>
       </c>
-      <c r="B130" s="2" t="str">
+      <c r="B130" s="36" t="str">
         <f t="shared" si="5"/>
         <v>OUTUBRO</v>
       </c>
-      <c r="C130" s="5" t="s">
+      <c r="C130" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D130" s="2" t="s">
+      <c r="D130" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E130" s="3">
@@ -3557,8 +3573,8 @@
       <c r="D131" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E131" s="21">
-        <v>80</v>
+      <c r="E131" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F131" s="22"/>
     </row>
@@ -3576,8 +3592,8 @@
       <c r="D132" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="14">
-        <v>75</v>
+      <c r="E132" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F132" s="15"/>
     </row>
@@ -3585,18 +3601,18 @@
       <c r="A133" s="16">
         <v>45966</v>
       </c>
-      <c r="B133" s="2" t="str">
+      <c r="B133" s="36" t="str">
         <f t="shared" ref="B133:B151" si="6">UPPER(TEXT(A133,"mmmm"))</f>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C133" s="5" t="s">
+      <c r="C133" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D133" s="2" t="s">
+      <c r="D133" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E133" s="3">
-        <v>70</v>
+      <c r="E133" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F133" s="17"/>
     </row>
@@ -3604,18 +3620,18 @@
       <c r="A134" s="16">
         <v>45966</v>
       </c>
-      <c r="B134" s="2" t="str">
+      <c r="B134" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C134" s="5" t="s">
+      <c r="C134" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D134" s="5" t="s">
+      <c r="D134" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E134" s="6">
-        <v>60</v>
+      <c r="E134" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F134" s="17"/>
     </row>
@@ -3623,14 +3639,14 @@
       <c r="A135" s="16">
         <v>45966</v>
       </c>
-      <c r="B135" s="2" t="str">
+      <c r="B135" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C135" s="5" t="s">
+      <c r="C135" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D135" s="2" t="s">
+      <c r="D135" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E135" s="3">
@@ -3642,14 +3658,14 @@
       <c r="A136" s="16">
         <v>45966</v>
       </c>
-      <c r="B136" s="2" t="str">
+      <c r="B136" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C136" s="5" t="s">
+      <c r="C136" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D136" s="2" t="s">
+      <c r="D136" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E136" s="3">
@@ -3661,14 +3677,14 @@
       <c r="A137" s="16">
         <v>45966</v>
       </c>
-      <c r="B137" s="2" t="str">
+      <c r="B137" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C137" s="5" t="s">
+      <c r="C137" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D137" s="5" t="s">
+      <c r="D137" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E137" s="6">
@@ -3682,14 +3698,14 @@
       <c r="A138" s="16">
         <v>45966</v>
       </c>
-      <c r="B138" s="2" t="str">
+      <c r="B138" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C138" s="5" t="s">
+      <c r="C138" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D138" s="5" t="s">
+      <c r="D138" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E138" s="6">
@@ -3701,14 +3717,14 @@
       <c r="A139" s="16">
         <v>45966</v>
       </c>
-      <c r="B139" s="2" t="str">
+      <c r="B139" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C139" s="5" t="s">
+      <c r="C139" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D139" s="2" t="s">
+      <c r="D139" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E139" s="3">
@@ -3720,14 +3736,14 @@
       <c r="A140" s="16">
         <v>45966</v>
       </c>
-      <c r="B140" s="2" t="str">
+      <c r="B140" s="36" t="str">
         <f t="shared" si="6"/>
         <v>NOVEMBRO</v>
       </c>
-      <c r="C140" s="5" t="s">
+      <c r="C140" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D140" s="2" t="s">
+      <c r="D140" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E140" s="3">
@@ -3751,8 +3767,8 @@
       <c r="D141" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E141" s="21">
-        <v>80</v>
+      <c r="E141" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F141" s="22"/>
     </row>
@@ -3770,8 +3786,8 @@
       <c r="D142" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="14">
-        <v>75</v>
+      <c r="E142" s="14" t="s">
+        <v>6</v>
       </c>
       <c r="F142" s="15"/>
     </row>
@@ -3779,18 +3795,18 @@
       <c r="A143" s="16">
         <v>45996</v>
       </c>
-      <c r="B143" s="2" t="str">
+      <c r="B143" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C143" s="5" t="s">
+      <c r="C143" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D143" s="2" t="s">
+      <c r="D143" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E143" s="3">
-        <v>70</v>
+      <c r="E143" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F143" s="17"/>
     </row>
@@ -3798,18 +3814,18 @@
       <c r="A144" s="16">
         <v>45996</v>
       </c>
-      <c r="B144" s="2" t="str">
+      <c r="B144" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C144" s="5" t="s">
+      <c r="C144" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D144" s="5" t="s">
+      <c r="D144" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="E144" s="6">
-        <v>60</v>
+      <c r="E144" s="6" t="s">
+        <v>6</v>
       </c>
       <c r="F144" s="17"/>
     </row>
@@ -3817,14 +3833,14 @@
       <c r="A145" s="16">
         <v>45996</v>
       </c>
-      <c r="B145" s="2" t="str">
+      <c r="B145" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C145" s="5" t="s">
+      <c r="C145" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D145" s="2" t="s">
+      <c r="D145" s="36" t="s">
         <v>25</v>
       </c>
       <c r="E145" s="3">
@@ -3836,14 +3852,14 @@
       <c r="A146" s="16">
         <v>45996</v>
       </c>
-      <c r="B146" s="2" t="str">
+      <c r="B146" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C146" s="5" t="s">
+      <c r="C146" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D146" s="2" t="s">
+      <c r="D146" s="36" t="s">
         <v>27</v>
       </c>
       <c r="E146" s="3">
@@ -3855,14 +3871,14 @@
       <c r="A147" s="16">
         <v>45996</v>
       </c>
-      <c r="B147" s="2" t="str">
+      <c r="B147" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C147" s="5" t="s">
+      <c r="C147" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D147" s="5" t="s">
+      <c r="D147" s="37" t="s">
         <v>28</v>
       </c>
       <c r="E147" s="6">
@@ -3876,14 +3892,14 @@
       <c r="A148" s="16">
         <v>45996</v>
       </c>
-      <c r="B148" s="2" t="str">
+      <c r="B148" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C148" s="5" t="s">
+      <c r="C148" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D148" s="5" t="s">
+      <c r="D148" s="37" t="s">
         <v>30</v>
       </c>
       <c r="E148" s="6">
@@ -3895,14 +3911,14 @@
       <c r="A149" s="16">
         <v>45996</v>
       </c>
-      <c r="B149" s="2" t="str">
+      <c r="B149" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C149" s="5" t="s">
+      <c r="C149" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D149" s="2" t="s">
+      <c r="D149" s="36" t="s">
         <v>33</v>
       </c>
       <c r="E149" s="3">
@@ -3914,14 +3930,14 @@
       <c r="A150" s="16">
         <v>45996</v>
       </c>
-      <c r="B150" s="2" t="str">
+      <c r="B150" s="36" t="str">
         <f t="shared" si="6"/>
         <v>DEZEMBRO</v>
       </c>
-      <c r="C150" s="5" t="s">
+      <c r="C150" s="37" t="s">
         <v>14</v>
       </c>
-      <c r="D150" s="2" t="s">
+      <c r="D150" s="36" t="s">
         <v>36</v>
       </c>
       <c r="E150" s="3">
@@ -3945,8 +3961,8 @@
       <c r="D151" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="E151" s="21">
-        <v>80</v>
+      <c r="E151" s="39" t="s">
+        <v>6</v>
       </c>
       <c r="F151" s="22"/>
     </row>
@@ -3973,17 +3989,17 @@
       <c r="A153" s="16">
         <v>45662</v>
       </c>
-      <c r="B153" s="2" t="str">
+      <c r="B153" s="36" t="str">
         <f t="shared" ref="B153" si="8">UPPER(TEXT(A153,"mmmm"))</f>
         <v>JANEIRO</v>
       </c>
-      <c r="C153" s="5" t="s">
+      <c r="C153" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D153" s="2" t="s">
+      <c r="D153" s="36" t="s">
         <v>85</v>
       </c>
-      <c r="E153" s="2">
+      <c r="E153" s="36">
         <v>56.67</v>
       </c>
       <c r="F153" s="17"/>
@@ -4008,18 +4024,22 @@
       <c r="F154" s="22"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>6</v>
+      <c r="A155" s="40">
+        <v>46058</v>
       </c>
       <c r="B155" s="2" t="str">
         <f t="shared" si="7"/>
-        <v>-</v>
+        <v>FEVEREIRO</v>
       </c>
       <c r="C155" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="D155" s="2"/>
-      <c r="E155" s="2"/>
+        <v>19</v>
+      </c>
+      <c r="D155" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E155" s="2">
+        <v>485</v>
+      </c>
       <c r="F155" s="9"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -80073,6 +80093,7 @@
       <c r="F5225" s="9"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:F5225" xr:uid="{702EDAF2-4E56-4152-9AC7-42C0539C8934}"/>
   <dataValidations count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C5225" xr:uid="{AF9D9592-C577-4578-BA24-426872FC1A84}">
       <formula1>INDIRECT("categorias")</formula1>
@@ -80087,10 +80108,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF510503-8604-4EE6-BD13-779E5B0B7580}">
-  <dimension ref="A1:K59"/>
+  <dimension ref="A1:L59"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -80099,9 +80120,10 @@
     <col min="3" max="4" width="19.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.140625" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -80117,8 +80139,14 @@
       <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="H1" s="41" t="s">
+        <v>89</v>
+      </c>
+      <c r="J1" s="42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="11">
         <v>46027</v>
       </c>
@@ -80142,8 +80170,11 @@
         <f>SUM(E2:E6)</f>
         <v>8324</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="16">
         <v>46027</v>
       </c>
@@ -80167,8 +80198,11 @@
         <f>SUM(E7:E11)</f>
         <v>7324</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="16">
         <v>46027</v>
       </c>
@@ -80192,8 +80226,11 @@
         <f>SUM(E12:E16)</f>
         <v>7324</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>46027</v>
       </c>
@@ -80217,11 +80254,11 @@
         <f>SUM(E17:E21)</f>
         <v>7324</v>
       </c>
-      <c r="K5">
-        <v>7324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="18">
         <v>46027</v>
       </c>
@@ -80245,8 +80282,12 @@
         <f>SUM(E22:E27)</f>
         <v>10824</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I6">
+        <v>6</v>
+      </c>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <v>46058</v>
       </c>
@@ -80270,8 +80311,11 @@
         <f>SUM(E28:E32)</f>
         <v>7324</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>46058</v>
       </c>
@@ -80295,8 +80339,11 @@
         <f>SUM(E33:E37)</f>
         <v>7324</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>46058</v>
       </c>
@@ -80320,8 +80367,11 @@
         <f>SUM(E38:E42)</f>
         <v>7324</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="16">
         <v>46058</v>
       </c>
@@ -80345,8 +80395,11 @@
         <f>SUM(E43:E46)</f>
         <v>6564</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="I10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="18">
         <v>46058</v>
       </c>
@@ -80370,8 +80423,11 @@
         <f>SUM(E47:E50)</f>
         <v>6564</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I11">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="11">
         <v>46086</v>
       </c>
@@ -80395,8 +80451,11 @@
         <f>SUM(E51:E55)</f>
         <v>10064</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="16">
         <v>46086</v>
       </c>
@@ -80421,7 +80480,7 @@
         <v>6564</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="16">
         <v>46086</v>
       </c>
@@ -80439,7 +80498,7 @@
         <v>760</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="16">
         <v>46086</v>
       </c>
@@ -80457,7 +80516,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="16" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="18">
         <v>46086</v>
       </c>
